--- a/doc/符文系统.xlsx
+++ b/doc/符文系统.xlsx
@@ -29,9 +29,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>符文系统：英雄每升10级获得一个随机符文，可重新随机。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+  <si>
+    <t>符文系统：英雄每升10级获得一个随机符文，可重新随机。
+基础符文到5级之后，才能出现高级符文。</t>
   </si>
   <si>
     <t>符文名称+数量</t>
@@ -97,10 +98,10 @@
     <t>收益型技能效果+20%</t>
   </si>
   <si>
-    <t>极速增益+3</t>
-  </si>
-  <si>
-    <t>技能cd减少10%</t>
+    <t>急速增益+3</t>
+  </si>
+  <si>
+    <t>技能急速+10</t>
   </si>
   <si>
     <t>火元素亲和+3</t>
@@ -109,8 +110,13 @@
     <t>火元素技能效果+10%</t>
   </si>
   <si>
-    <t>火元素亲和+多重效应=火元素计数型技能额外附带点燃效果，可点燃被灼烧单位，直接结算灼烧伤害。
-每额外获得一个火元素亲和，灼烧伤害结算增加25%。</t>
+    <t xml:space="preserve">火元素亲和+多重效应=【新符文】-火焰多重：计数型技能额外附带点燃效果，可点燃被灼烧单位，直接结算灼烧伤害。
+火元素亲和+范围拓展=【新符文】-火焰拓宽：范围型技能附带灼烧，持续3秒，每秒造成攻击力25%（对应技能元素）伤害。
+火元素亲和+伤害增益=【新符文】-火焰亲和：增加10%的全元素穿透，
+如果该技能是火元素技能，则额外增加100%的伤害。
+火元素亲和+防御为主=【新符文】-烈火铠甲：受到伤害时，会立即反弹自身攻击力50%的火元素伤害。
+火元素亲和+精通召唤=【新符文】-烈焰召唤：召唤物消失时，对原地直径300码的范围造攻击力200%的火元素伤害。
+</t>
   </si>
   <si>
     <t>雷元素亲和+3</t>
@@ -119,28 +125,64 @@
     <t>雷元素技能效果+10%</t>
   </si>
   <si>
+    <t>雷元素亲和+多重效应=【新符文】-闪电多重：计数型技能额外附带25%雷元素伤害，
+如果该技能是雷元素技能则额外技能数量+2。
+雷元素亲和+范围拓展=【新符文】-雷电惩戒：范围型技能造成伤害时，25%概率对敌人造成1秒的麻痹效果。
+雷元素亲和+伤害增益=【新符文】-雷电亲和：增加10%全元素穿透，
+如果该技能是雷元素技能，则额外增加25%的雷元素穿透。
+雷元素亲和+防御为主=【新符文】-闪电铠甲：受到伤害时，会让目标立即被麻痹1秒。
+雷元素亲和+精通召唤=【新符文】-雷霆召唤：召唤物生成时，延迟1秒之后降下雷霆，对原地直径300码的范围造成攻击力200%的雷元素伤害。</t>
+  </si>
+  <si>
     <t>冰元素亲和+3</t>
   </si>
   <si>
     <t>冰元素技能效果+10%</t>
   </si>
   <si>
+    <t>冰元素亲和+多重效应=【新符文】-冰霜多重：技术性技能额外附带30%减速效果，
+如果该技能是冰元素技能则30%概率造成冰冻1秒。
+冰元素亲和+范围拓展=【新符文】-寒冰领域：范围型技能造成伤害时，25%概率对敌人造成减速30%的效果，
+对减速的单位有30%概率造成冰冻1秒。
+冰元素亲和+伤害增益=【新符文】-寒冰亲和：增加10%全元素穿透，
+如果该技能是冰元素技能，则额外增加25%的冰元素穿透。
+冰元素亲和+防御为主=【新符文】-寒冰铠甲：受到伤害时，会让目标立即被冰冻1秒。
+冰元素亲和+精通召唤=【新符文】-寒冰召唤：召唤物造成伤害时会附带30%减速效果，每造成5次伤害时，会造成直径300码的范围造成攻击力50%冰元素伤害。</t>
+  </si>
+  <si>
     <t>风元素亲和+3</t>
   </si>
   <si>
     <t>风元素技能效果+10%</t>
   </si>
   <si>
+    <t>风元素亲和+多重效应=【新符文】-飓风多重：计数型技能数量额外+3，但造成伤害会降低40%。
+如果该技能是风元素技能，则不会降低伤害。
+风元素亲和+范围拓展=【新符文】-狂风领域：范围型伤害技能造成伤害时3秒内，敌军受到的任意来源伤害增加15%。
+风元素亲和+伤害增益=【新符文】-飓风亲和：增加10%全元素穿透，
+如果该技能是风元素技能，则额外增加25%的风元素穿透。
+风元素亲和+防御为主=【新符文】-飓风铠甲：敌人靠近自身直径范围100码时，会被击退300码。（10秒内只生效一次）
+风元素亲和+精通召唤=【新符文】-飓风召唤：召唤物造成伤害时时会击退敌人50码。</t>
+  </si>
+  <si>
     <t>光元素亲和</t>
   </si>
   <si>
     <t>光元素技能效果+25%</t>
   </si>
   <si>
+    <t>光元素亲和只会在50级之后出现，选择之后会出现新符文【光芒万丈】：
+造成所有伤害均会附带50%的光元素伤害，
+且回复该次伤害实际数值的10%血量。</t>
+  </si>
+  <si>
     <t>暗元素亲和</t>
   </si>
   <si>
     <t>暗元素技能效果+25%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -761,10 +803,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1079,8 +1121,8 @@
   <sheetPr/>
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27:J28"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1092,975 +1134,985 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="2" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" ht="99" customHeight="1" spans="1:10">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" ht="164" customHeight="1" spans="1:10">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" ht="117" customHeight="1" spans="1:10">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" ht="125" customHeight="1" spans="1:10">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" ht="177" customHeight="1" spans="1:10">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="A35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" ht="43" customHeight="1" spans="1:10">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="A37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" ht="41" customHeight="1" spans="1:10">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="109">

--- a/doc/符文系统.xlsx
+++ b/doc/符文系统.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>符文系统：英雄每升10级获得一个随机符文，可重新随机。
 基础符文到5级之后，才能出现高级符文。</t>
@@ -47,55 +47,67 @@
     <t>多重效应+5</t>
   </si>
   <si>
-    <t>计数型技能数量额外+1</t>
+    <t>【弹道型】技能数量额外+1</t>
   </si>
   <si>
     <t>范围拓展+5</t>
   </si>
   <si>
-    <t>范围型技能范围+20%</t>
+    <t>【范围型】技能技能范围+20%</t>
+  </si>
+  <si>
+    <t>群体持续+5</t>
+  </si>
+  <si>
+    <t>【持续型】技能群体收益+10%</t>
   </si>
   <si>
     <t>延长时效+5</t>
   </si>
   <si>
-    <t>持续型技能持续时间+1秒</t>
+    <t>【持续型】技能持续时间+1秒</t>
   </si>
   <si>
     <t>成长快乐+5</t>
   </si>
   <si>
-    <t>成长型技能成长效果+20%</t>
-  </si>
-  <si>
-    <t>伤害增益+5</t>
-  </si>
-  <si>
-    <t>伤害型技能伤害结果+20%</t>
+    <t>【成长型】技能成长效果+20%</t>
+  </si>
+  <si>
+    <t>技能增强+5</t>
+  </si>
+  <si>
+    <t>技能伤害+20%（针对所有可造成伤害的技能）</t>
   </si>
   <si>
     <t>以钱生钱+5</t>
   </si>
   <si>
-    <t>理财型技能收益效果+20%</t>
-  </si>
-  <si>
-    <t>防御为主+5</t>
-  </si>
-  <si>
-    <t>防御型技能效果+20%</t>
+    <t>【理财型】技能收益效果+20%</t>
+  </si>
+  <si>
+    <t>环绕加速+5</t>
+  </si>
+  <si>
+    <t>【环绕型】技能伤害间隔-0.1s</t>
   </si>
   <si>
     <t>精通召唤+5</t>
   </si>
   <si>
-    <t>召唤型技能召唤物存在时间+1秒</t>
-  </si>
-  <si>
-    <t>收益快感+5</t>
-  </si>
-  <si>
-    <t>收益型技能效果+20%</t>
+    <t>【召唤型】技能召唤物存在时间+1秒</t>
+  </si>
+  <si>
+    <t>增益快感+5</t>
+  </si>
+  <si>
+    <t>【增益型】技能效果+20%</t>
+  </si>
+  <si>
+    <t>蓝耗降低+3</t>
+  </si>
+  <si>
+    <t>技能蓝耗降低20%</t>
   </si>
   <si>
     <t>急速增益+3</t>
@@ -110,11 +122,11 @@
     <t>火元素技能效果+10%</t>
   </si>
   <si>
-    <t xml:space="preserve">火元素亲和+多重效应=【新符文】-火焰多重：计数型技能额外附带点燃效果，可点燃被灼烧单位，直接结算灼烧伤害。
+    <t xml:space="preserve">火元素亲和+多重效应=【新符文】-火焰多重：弹道技能额外附带点燃效果，可点燃被灼烧单位，直接结算灼烧伤害。
 火元素亲和+范围拓展=【新符文】-火焰拓宽：范围型技能附带灼烧，持续3秒，每秒造成攻击力25%（对应技能元素）伤害。
-火元素亲和+伤害增益=【新符文】-火焰亲和：增加10%的全元素穿透，
+火元素亲和+技能增强=【新符文】-火焰亲和：增加10%的全元素穿透，
 如果该技能是火元素技能，则额外增加100%的伤害。
-火元素亲和+防御为主=【新符文】-烈火铠甲：受到伤害时，会立即反弹自身攻击力50%的火元素伤害。
+火元素亲和+增益快感=【新符文】-烈火铠甲：受到伤害时，会立即反弹自身攻击力50%的火元素伤害。
 火元素亲和+精通召唤=【新符文】-烈焰召唤：召唤物消失时，对原地直径300码的范围造攻击力200%的火元素伤害。
 </t>
   </si>
@@ -125,12 +137,12 @@
     <t>雷元素技能效果+10%</t>
   </si>
   <si>
-    <t>雷元素亲和+多重效应=【新符文】-闪电多重：计数型技能额外附带25%雷元素伤害，
+    <t>雷元素亲和+多重效应=【新符文】-闪电多重：弹道型技能额外附带25%雷元素伤害，
 如果该技能是雷元素技能则额外技能数量+2。
 雷元素亲和+范围拓展=【新符文】-雷电惩戒：范围型技能造成伤害时，25%概率对敌人造成1秒的麻痹效果。
 雷元素亲和+伤害增益=【新符文】-雷电亲和：增加10%全元素穿透，
 如果该技能是雷元素技能，则额外增加25%的雷元素穿透。
-雷元素亲和+防御为主=【新符文】-闪电铠甲：受到伤害时，会让目标立即被麻痹1秒。
+雷元素亲和+增益快感=【新符文】-闪电铠甲：受到伤害时，会让目标立即被麻痹1秒。
 雷元素亲和+精通召唤=【新符文】-雷霆召唤：召唤物生成时，延迟1秒之后降下雷霆，对原地直径300码的范围造成攻击力200%的雷元素伤害。</t>
   </si>
   <si>
@@ -140,13 +152,13 @@
     <t>冰元素技能效果+10%</t>
   </si>
   <si>
-    <t>冰元素亲和+多重效应=【新符文】-冰霜多重：技术性技能额外附带30%减速效果，
+    <t>冰元素亲和+多重效应=【新符文】-冰霜多重：弹道型技能额外附带30%减速效果，
 如果该技能是冰元素技能则30%概率造成冰冻1秒。
 冰元素亲和+范围拓展=【新符文】-寒冰领域：范围型技能造成伤害时，25%概率对敌人造成减速30%的效果，
 对减速的单位有30%概率造成冰冻1秒。
 冰元素亲和+伤害增益=【新符文】-寒冰亲和：增加10%全元素穿透，
 如果该技能是冰元素技能，则额外增加25%的冰元素穿透。
-冰元素亲和+防御为主=【新符文】-寒冰铠甲：受到伤害时，会让目标立即被冰冻1秒。
+冰元素亲和+增益快感=【新符文】-寒冰铠甲：受到伤害时，会让目标立即被冰冻1秒。
 冰元素亲和+精通召唤=【新符文】-寒冰召唤：召唤物造成伤害时会附带30%减速效果，每造成5次伤害时，会造成直径300码的范围造成攻击力50%冰元素伤害。</t>
   </si>
   <si>
@@ -156,12 +168,12 @@
     <t>风元素技能效果+10%</t>
   </si>
   <si>
-    <t>风元素亲和+多重效应=【新符文】-飓风多重：计数型技能数量额外+3，但造成伤害会降低40%。
+    <t>风元素亲和+多重效应=【新符文】-飓风多重：弹道型技能数量额外+3，但造成伤害会降低40%。
 如果该技能是风元素技能，则不会降低伤害。
 风元素亲和+范围拓展=【新符文】-狂风领域：范围型伤害技能造成伤害时3秒内，敌军受到的任意来源伤害增加15%。
 风元素亲和+伤害增益=【新符文】-飓风亲和：增加10%全元素穿透，
 如果该技能是风元素技能，则额外增加25%的风元素穿透。
-风元素亲和+防御为主=【新符文】-飓风铠甲：敌人靠近自身直径范围100码时，会被击退300码。（10秒内只生效一次）
+风元素亲和+增益快感=【新符文】-飓风铠甲：敌人靠近自身直径范围100码时，会被击退300码。（10秒内只生效一次）
 风元素亲和+精通召唤=【新符文】-飓风召唤：召唤物造成伤害时时会击退敌人50码。</t>
   </si>
   <si>
@@ -1119,10 +1131,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37:J38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1490,13 +1502,11 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" ht="164" customHeight="1" spans="1:10">
+    <row r="28" spans="1:10">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1510,23 +1520,21 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" ht="117" customHeight="1" spans="1:10">
+    <row r="30" spans="1:10">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1540,23 +1548,23 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" ht="125" customHeight="1" spans="1:10">
+    <row r="32" ht="164" customHeight="1" spans="1:10">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1570,23 +1578,23 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" ht="177" customHeight="1" spans="1:10">
+    <row r="34" ht="117" customHeight="1" spans="1:10">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1600,23 +1608,23 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" ht="43" customHeight="1" spans="1:10">
+    <row r="36" ht="125" customHeight="1" spans="1:10">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1630,23 +1638,23 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2" t="s">
-        <v>41</v>
+      <c r="H37" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" ht="41" customHeight="1" spans="1:10">
+    <row r="38" ht="177" customHeight="1" spans="1:10">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1659,18 +1667,24 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="2"/>
+      <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="H39" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" ht="43" customHeight="1" spans="1:10">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1683,18 +1697,24 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="2"/>
+      <c r="A41" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" ht="41" customHeight="1" spans="1:10">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2114,8 +2134,56 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="109">
+  <mergeCells count="115">
     <mergeCell ref="A1:G4"/>
     <mergeCell ref="A5:B6"/>
     <mergeCell ref="C5:G6"/>
@@ -2123,8 +2191,6 @@
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C7:G8"/>
     <mergeCell ref="H7:J8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="A11:B12"/>
     <mergeCell ref="A13:B14"/>
     <mergeCell ref="A15:B16"/>
     <mergeCell ref="A17:B18"/>
@@ -2132,7 +2198,6 @@
     <mergeCell ref="A21:B22"/>
     <mergeCell ref="A23:B24"/>
     <mergeCell ref="A25:B26"/>
-    <mergeCell ref="A27:B28"/>
     <mergeCell ref="A29:B30"/>
     <mergeCell ref="A31:B32"/>
     <mergeCell ref="A33:B34"/>
@@ -2157,8 +2222,6 @@
     <mergeCell ref="A71:B72"/>
     <mergeCell ref="A73:B74"/>
     <mergeCell ref="A75:B76"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C11:G12"/>
     <mergeCell ref="C13:G14"/>
     <mergeCell ref="C15:G16"/>
     <mergeCell ref="C17:G18"/>
@@ -2166,7 +2229,6 @@
     <mergeCell ref="C21:G22"/>
     <mergeCell ref="C23:G24"/>
     <mergeCell ref="C25:G26"/>
-    <mergeCell ref="C27:G28"/>
     <mergeCell ref="C29:G30"/>
     <mergeCell ref="C31:G32"/>
     <mergeCell ref="C33:G34"/>
@@ -2191,8 +2253,6 @@
     <mergeCell ref="C71:G72"/>
     <mergeCell ref="C73:G74"/>
     <mergeCell ref="C75:G76"/>
-    <mergeCell ref="H9:J10"/>
-    <mergeCell ref="H11:J12"/>
     <mergeCell ref="H13:J14"/>
     <mergeCell ref="H15:J16"/>
     <mergeCell ref="H17:J18"/>
@@ -2200,7 +2260,6 @@
     <mergeCell ref="H21:J22"/>
     <mergeCell ref="H23:J24"/>
     <mergeCell ref="H25:J26"/>
-    <mergeCell ref="H27:J28"/>
     <mergeCell ref="H29:J30"/>
     <mergeCell ref="H31:J32"/>
     <mergeCell ref="H33:J34"/>
@@ -2225,6 +2284,21 @@
     <mergeCell ref="H71:J72"/>
     <mergeCell ref="H73:J74"/>
     <mergeCell ref="H75:J76"/>
+    <mergeCell ref="A77:B78"/>
+    <mergeCell ref="C77:G78"/>
+    <mergeCell ref="H77:J78"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:G12"/>
+    <mergeCell ref="A79:B80"/>
+    <mergeCell ref="C79:G80"/>
+    <mergeCell ref="H79:J80"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:G28"/>
+    <mergeCell ref="H27:J28"/>
+    <mergeCell ref="H9:J10"/>
+    <mergeCell ref="H11:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/符文系统.xlsx
+++ b/doc/符文系统.xlsx
@@ -1133,8 +1133,8 @@
   <sheetPr/>
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35:J36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/doc/符文系统.xlsx
+++ b/doc/符文系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:J24"/>
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2193,8 +2193,6 @@
     <mergeCell ref="H7:J8"/>
     <mergeCell ref="A13:B14"/>
     <mergeCell ref="A15:B16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="A19:B20"/>
     <mergeCell ref="A21:B22"/>
     <mergeCell ref="A23:B24"/>
     <mergeCell ref="A25:B26"/>
@@ -2224,8 +2222,6 @@
     <mergeCell ref="A75:B76"/>
     <mergeCell ref="C13:G14"/>
     <mergeCell ref="C15:G16"/>
-    <mergeCell ref="C17:G18"/>
-    <mergeCell ref="C19:G20"/>
     <mergeCell ref="C21:G22"/>
     <mergeCell ref="C23:G24"/>
     <mergeCell ref="C25:G26"/>
@@ -2255,8 +2251,6 @@
     <mergeCell ref="C75:G76"/>
     <mergeCell ref="H13:J14"/>
     <mergeCell ref="H15:J16"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H19:J20"/>
     <mergeCell ref="H21:J22"/>
     <mergeCell ref="H23:J24"/>
     <mergeCell ref="H25:J26"/>
@@ -2299,6 +2293,12 @@
     <mergeCell ref="H27:J28"/>
     <mergeCell ref="H9:J10"/>
     <mergeCell ref="H11:J12"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:G18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:G20"/>
+    <mergeCell ref="H19:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
